--- a/data/trans_bre/P41E_2023_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P41E_2023_R-Edad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.530402058484102</v>
+        <v>2.530402058484099</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.4075829288915587</v>
+        <v>0.4075829288915582</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.307111762118097</v>
+        <v>-6.716192538733365</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.744432978667135</v>
+        <v>-0.792567814118573</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.06890662184025</v>
+        <v>12.26096026604747</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8.767111849124262</v>
+        <v>4.631108460326658</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-0.2463813647493027</v>
+        <v>-0.246381364749302</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1252931885765141</v>
+        <v>-0.1252931885765137</v>
       </c>
     </row>
     <row r="8">
@@ -612,9 +612,11 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.634439688365109</v>
-      </c>
-      <c r="D8" s="6" t="inlineStr"/>
+        <v>-3.403605747087033</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.9138873707953989</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -624,7 +626,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.372558656735853</v>
+        <v>2.084211946389226</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -640,10 +642,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.2496316869963353</v>
+        <v>-0.249631686996335</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.1060253421186624</v>
+        <v>-0.1060253421186622</v>
       </c>
     </row>
     <row r="11">
@@ -654,10 +656,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.154530120674726</v>
+        <v>-2.312393558983448</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6807903792486242</v>
+        <v>-0.6765804873686728</v>
       </c>
     </row>
     <row r="12">
@@ -668,10 +670,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.733405009721762</v>
+        <v>1.482785654774134</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.65991815461943</v>
+        <v>1.150080123922999</v>
       </c>
     </row>
     <row r="13">
@@ -700,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.977061580778239</v>
+        <v>-1.919646140381361</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.29460676129302</v>
+        <v>-0.2760511737099399</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.015302367981741</v>
+        <v>3.990410200101315</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.124420273191126</v>
+        <v>1.128370539768435</v>
       </c>
     </row>
     <row r="16">
@@ -732,10 +734,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.569445291835076</v>
+        <v>2.569445291835071</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1705086691989927</v>
+        <v>0.1705086691989923</v>
       </c>
     </row>
     <row r="17">
@@ -746,10 +748,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.755442892939753</v>
+        <v>-2.093636603094823</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.1469859539634193</v>
+        <v>-0.1215185572149942</v>
       </c>
     </row>
     <row r="18">
@@ -760,10 +762,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.668838856637132</v>
+        <v>7.630644519415661</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6097292548215389</v>
+        <v>0.5959717431848686</v>
       </c>
     </row>
     <row r="19">
@@ -778,10 +780,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>5.273701490248834</v>
+        <v>5.273701490248839</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2085101057088094</v>
+        <v>0.2085101057088097</v>
       </c>
     </row>
     <row r="20">
@@ -792,10 +794,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.932550320173535</v>
+        <v>-1.678807792032932</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03887691548870147</v>
+        <v>-0.06073810892067821</v>
       </c>
     </row>
     <row r="21">
@@ -806,10 +808,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.67165961796772</v>
+        <v>12.21089412578947</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5770051028765982</v>
+        <v>0.5645929359974531</v>
       </c>
     </row>
     <row r="22">
@@ -824,10 +826,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>6.339012483785411</v>
+        <v>6.339012483785416</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.168677017574794</v>
+        <v>0.1686770175747942</v>
       </c>
     </row>
     <row r="23">
@@ -838,10 +840,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.604152411640761</v>
+        <v>-3.406973120145022</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.06327831449151818</v>
+        <v>-0.08091123964661846</v>
       </c>
     </row>
     <row r="24">
@@ -852,10 +854,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.79746200617581</v>
+        <v>15.19539426409088</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.5068576749369079</v>
+        <v>0.461210191212214</v>
       </c>
     </row>
     <row r="25">
@@ -870,10 +872,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>1.162960158566498</v>
+        <v>1.162960158566494</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.1034879711022325</v>
+        <v>0.1034879711022321</v>
       </c>
     </row>
     <row r="26">
@@ -884,10 +886,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.7472389232458587</v>
+        <v>-0.8477180388519899</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06009954855302318</v>
+        <v>-0.06860828462341262</v>
       </c>
     </row>
     <row r="27">
@@ -898,10 +900,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.174641892841581</v>
+        <v>3.276833513419368</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3093585966400771</v>
+        <v>0.3121975571179396</v>
       </c>
     </row>
     <row r="28">
